--- a/experiment/quadratic/ex9_2_3/compare/Alpha-Zero/ex9_2_3_Alpha-Zero.xlsx
+++ b/experiment/quadratic/ex9_2_3/compare/Alpha-Zero/ex9_2_3_Alpha-Zero.xlsx
@@ -497,13 +497,13 @@
         <v>30.307999999999986</v>
       </c>
       <c r="E2">
-        <v>0.00083412</v>
+        <v>0.001062471</v>
       </c>
       <c r="F2">
-        <v>0.01893555</v>
+        <v>0.024829799</v>
       </c>
       <c r="G2">
-        <v>0.001129290830685429</v>
+        <v>0.0014682835419126327</v>
       </c>
       <c r="H2">
         <v>2244</v>
@@ -538,13 +538,13 @@
         <v>30.307999999999964</v>
       </c>
       <c r="E3">
-        <v>0.00366048</v>
+        <v>0.005455258</v>
       </c>
       <c r="F3">
-        <v>0.01527399</v>
+        <v>0.012425234</v>
       </c>
       <c r="G3">
-        <v>0.0047151418980169975</v>
+        <v>0.006388017097186701</v>
       </c>
       <c r="H3">
         <v>3003</v>
@@ -579,13 +579,13 @@
         <v>30.307999863534505</v>
       </c>
       <c r="E4">
-        <v>0.01360872</v>
+        <v>0.014883953</v>
       </c>
       <c r="F4">
-        <v>0.02026152</v>
+        <v>0.028417247</v>
       </c>
       <c r="G4">
-        <v>0.015864619556962025</v>
+        <v>0.01848814341697417</v>
       </c>
       <c r="H4">
         <v>17344</v>
